--- a/data/0. old data/0. raw/2016/daiichi.xlsx
+++ b/data/0. old data/0. raw/2016/daiichi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="24460" windowHeight="8960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34240" windowHeight="26840"/>
   </bookViews>
   <sheets>
     <sheet name="daiichi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="371">
   <si>
     <t>name</t>
   </si>
@@ -1972,213 +1972,18 @@
     <t>Hansi</t>
   </si>
   <si>
-    <t>Mitteregger</t>
-  </si>
-  <si>
-    <t>Schindewolf</t>
-  </si>
-  <si>
-    <t>Garachemani</t>
-  </si>
-  <si>
-    <t>Luder</t>
-  </si>
-  <si>
-    <t>Schär</t>
-  </si>
-  <si>
-    <t>Chételat</t>
-  </si>
-  <si>
-    <t>Pellaton</t>
-  </si>
-  <si>
-    <t>Stähli</t>
-  </si>
-  <si>
-    <t>Rüegg</t>
-  </si>
-  <si>
-    <t>Sidler-Künzli</t>
-  </si>
-  <si>
-    <t>Steiger</t>
-  </si>
-  <si>
-    <t>Wyss</t>
-  </si>
-  <si>
-    <t>Chappuis</t>
-  </si>
-  <si>
-    <t>Friedli-Jordan</t>
-  </si>
-  <si>
-    <t>Schröder</t>
-  </si>
-  <si>
-    <t>Baeriswyl</t>
-  </si>
-  <si>
-    <t>Kägi</t>
-  </si>
-  <si>
-    <t>Tschanz</t>
-  </si>
-  <si>
-    <t>Gabathuler</t>
-  </si>
-  <si>
-    <t>Hoffmann</t>
-  </si>
-  <si>
-    <t>Landolt</t>
-  </si>
-  <si>
-    <t>Schwäger</t>
-  </si>
-  <si>
-    <t>Karatolios</t>
-  </si>
-  <si>
-    <t>Speiser</t>
-  </si>
-  <si>
-    <t>Anderegg</t>
-  </si>
-  <si>
-    <t>Hagmann</t>
-  </si>
-  <si>
-    <t>Kummer</t>
-  </si>
-  <si>
-    <t>Meyer</t>
-  </si>
-  <si>
-    <t>Rutsch</t>
-  </si>
-  <si>
-    <t>Savic</t>
-  </si>
-  <si>
-    <t>Streich</t>
-  </si>
-  <si>
-    <t>Waser</t>
-  </si>
-  <si>
     <t>Popova Stefanova</t>
   </si>
   <si>
-    <t>Berney</t>
-  </si>
-  <si>
-    <t>Chatelain</t>
-  </si>
-  <si>
-    <t>Ehrler</t>
-  </si>
-  <si>
-    <t>Fuhrknann</t>
-  </si>
-  <si>
-    <t>Grisel</t>
-  </si>
-  <si>
-    <t>Keller</t>
-  </si>
-  <si>
-    <t>Wüthrich</t>
-  </si>
-  <si>
-    <t>Fatio-Fagundes</t>
-  </si>
-  <si>
     <t>Krause</t>
   </si>
   <si>
-    <t>Lehner</t>
-  </si>
-  <si>
-    <t>Segginger</t>
-  </si>
-  <si>
-    <t>Bues Hebeisen</t>
-  </si>
-  <si>
-    <t>Burgan</t>
-  </si>
-  <si>
-    <t>Galli</t>
-  </si>
-  <si>
-    <t>Simlc</t>
-  </si>
-  <si>
-    <t>Hügli</t>
-  </si>
-  <si>
-    <t>Kitschmann</t>
-  </si>
-  <si>
-    <t>Lemberger</t>
-  </si>
-  <si>
-    <t>Hebeisen</t>
-  </si>
-  <si>
-    <t>Künzle</t>
-  </si>
-  <si>
-    <t>Louma</t>
-  </si>
-  <si>
     <t>Puricel</t>
   </si>
   <si>
     <t>Fischer</t>
   </si>
   <si>
-    <t>Stockhausen</t>
-  </si>
-  <si>
-    <t>Steffel</t>
-  </si>
-  <si>
-    <t>Altwegg</t>
-  </si>
-  <si>
-    <t>Asmis</t>
-  </si>
-  <si>
-    <t>Meier</t>
-  </si>
-  <si>
-    <t>Tsakiris</t>
-  </si>
-  <si>
-    <t>Battegay</t>
-  </si>
-  <si>
-    <t>Mattle</t>
-  </si>
-  <si>
-    <t>Baumgartner</t>
-  </si>
-  <si>
-    <t>Lüscher</t>
-  </si>
-  <si>
-    <t>Allemann</t>
-  </si>
-  <si>
-    <t>Fontana</t>
-  </si>
-  <si>
-    <t>Tâche</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2232,9 +2037,6 @@
     <t>St. Gallen</t>
   </si>
   <si>
-    <t>Signorell</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2245,9 +2047,6 @@
     </r>
   </si>
   <si>
-    <t>Finci</t>
-  </si>
-  <si>
     <t>Rheinfelden</t>
   </si>
   <si>
@@ -2274,9 +2073,6 @@
     </r>
   </si>
   <si>
-    <t>Schopfer</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2670,6 +2466,213 @@
       </rPr>
       <t>Vereinigung Zürcher Internisten</t>
     </r>
+  </si>
+  <si>
+    <t>Frederic Tâche</t>
+  </si>
+  <si>
+    <t>Hans Peter Mitteregger</t>
+  </si>
+  <si>
+    <t>Marc Schindewolf</t>
+  </si>
+  <si>
+    <t>Ali Reza Garachemani</t>
+  </si>
+  <si>
+    <t>Andreas Luder</t>
+  </si>
+  <si>
+    <t>Beat Schär</t>
+  </si>
+  <si>
+    <t>Claude-André Chételat</t>
+  </si>
+  <si>
+    <t>Cyrill Pellaton</t>
+  </si>
+  <si>
+    <t>Christoph Stähli</t>
+  </si>
+  <si>
+    <t>Daniel Rüegg</t>
+  </si>
+  <si>
+    <t>Denise Sidler-Künzli</t>
+  </si>
+  <si>
+    <t>Daniel Steiger</t>
+  </si>
+  <si>
+    <t>Erwin Wyss</t>
+  </si>
+  <si>
+    <t>François Chappuis</t>
+  </si>
+  <si>
+    <t>Fabienne Friedli-Jordan</t>
+  </si>
+  <si>
+    <t>Frank Schröder</t>
+  </si>
+  <si>
+    <t>Gérard Baeriswyl</t>
+  </si>
+  <si>
+    <t>Georg Kägi</t>
+  </si>
+  <si>
+    <t>Hansulrich Tschanz</t>
+  </si>
+  <si>
+    <t>Jean Gabathuler</t>
+  </si>
+  <si>
+    <t>Jacques Hoffmann</t>
+  </si>
+  <si>
+    <t>Jacqueline Landolt</t>
+  </si>
+  <si>
+    <t>Judith Maria Schwaiger</t>
+  </si>
+  <si>
+    <t>Jan Signorell</t>
+  </si>
+  <si>
+    <t>Konstantinos Karatolios</t>
+  </si>
+  <si>
+    <t>Krystyna Speiser</t>
+  </si>
+  <si>
+    <t>Léo Finci</t>
+  </si>
+  <si>
+    <t>Matthias Anderegg</t>
+  </si>
+  <si>
+    <t>Michaël Hagmann</t>
+  </si>
+  <si>
+    <t>Marco Kummer</t>
+  </si>
+  <si>
+    <t>Martin Meyer</t>
+  </si>
+  <si>
+    <t>Mathis Rutsch</t>
+  </si>
+  <si>
+    <t>Milos Savcic</t>
+  </si>
+  <si>
+    <t>Martin Schär</t>
+  </si>
+  <si>
+    <t>Markus Streich</t>
+  </si>
+  <si>
+    <t>Marco Waser</t>
+  </si>
+  <si>
+    <t>Pascal Berney</t>
+  </si>
+  <si>
+    <t>Pascal Chatelain</t>
+  </si>
+  <si>
+    <t>Peter Ehrler</t>
+  </si>
+  <si>
+    <t>Peter Fuhrimann</t>
+  </si>
+  <si>
+    <t>Philippe Grisel</t>
+  </si>
+  <si>
+    <t>Pierre-Frédéric Keller</t>
+  </si>
+  <si>
+    <t>Patrick Schopfer</t>
+  </si>
+  <si>
+    <t>Patricia Wüthrich</t>
+  </si>
+  <si>
+    <t>Renata Fatio-Fagundes</t>
+  </si>
+  <si>
+    <t>Roman Lehner</t>
+  </si>
+  <si>
+    <t>Roland Segginger</t>
+  </si>
+  <si>
+    <t>Sabine Bues Hebeisen</t>
+  </si>
+  <si>
+    <t>Saèd Burgan</t>
+  </si>
+  <si>
+    <t>Stefan Galli</t>
+  </si>
+  <si>
+    <t>Tomislav Simic</t>
+  </si>
+  <si>
+    <t>Urs Hügli</t>
+  </si>
+  <si>
+    <t>Urs Kitschmann</t>
+  </si>
+  <si>
+    <t>Ulrich Lemberger</t>
+  </si>
+  <si>
+    <t>Vinzenz Hebeisen</t>
+  </si>
+  <si>
+    <t>Othmar Künzle</t>
+  </si>
+  <si>
+    <t>Ruedi Louma</t>
+  </si>
+  <si>
+    <t>Wolfgang Stockhausen</t>
+  </si>
+  <si>
+    <t>Jan Steffel</t>
+  </si>
+  <si>
+    <t>Lukas Altwegg</t>
+  </si>
+  <si>
+    <t>Lars Asmis</t>
+  </si>
+  <si>
+    <t>Bernhard Meier</t>
+  </si>
+  <si>
+    <t>Dimitrios Tsakiris</t>
+  </si>
+  <si>
+    <t>Edouard Battegay</t>
+  </si>
+  <si>
+    <t>Heinrich Mattle</t>
+  </si>
+  <si>
+    <t>Iris Baumgartner</t>
+  </si>
+  <si>
+    <t>Thomas Lüscher</t>
+  </si>
+  <si>
+    <t>Yves Allemann</t>
+  </si>
+  <si>
+    <t>Pierre Fontana</t>
   </si>
 </sst>
 </file>
@@ -3112,7 +3115,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3155,6 +3158,220 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3234,7 +3451,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="274">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3270,6 +3487,113 @@
     <cellStyle name="Besuchter Link" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="273" builtinId="9" hidden="1"/>
     <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -3284,6 +3608,113 @@
     <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="272" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3595,14 +4026,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="3"/>
     <col min="4" max="4" width="17" style="3" bestFit="1" customWidth="1"/>
@@ -3690,7 +4121,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>21</v>
@@ -3721,7 +4152,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>23</v>
@@ -3750,7 +4181,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>25</v>
@@ -3779,7 +4210,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -3808,7 +4239,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>28</v>
@@ -3837,7 +4268,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
@@ -3868,7 +4299,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>32</v>
@@ -3897,16 +4328,16 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="15"/>
@@ -3926,7 +4357,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>33</v>
@@ -3955,7 +4386,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>35</v>
@@ -3986,7 +4417,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>36</v>
@@ -4015,7 +4446,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>37</v>
@@ -4044,10 +4475,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>219</v>
@@ -4075,7 +4506,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>214</v>
@@ -4106,7 +4537,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>28</v>
@@ -4135,10 +4566,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>219</v>
@@ -4164,10 +4595,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>219</v>
@@ -4195,7 +4626,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>41</v>
@@ -4204,7 +4635,7 @@
         <v>219</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="15"/>
@@ -4224,7 +4655,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>42</v>
@@ -4253,7 +4684,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>44</v>
@@ -4284,7 +4715,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>322</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>46</v>
@@ -4317,7 +4748,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>47</v>
@@ -4346,7 +4777,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>49</v>
@@ -4375,7 +4806,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>51</v>
@@ -4406,10 +4837,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>219</v>
@@ -4435,7 +4866,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>52</v>
@@ -4464,7 +4895,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>53</v>
@@ -4493,7 +4924,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>55</v>
@@ -4522,7 +4953,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>215</v>
@@ -4551,7 +4982,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>58</v>
@@ -4560,7 +4991,7 @@
         <v>219</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="15"/>
@@ -4580,7 +5011,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>59</v>
@@ -4609,7 +5040,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>61</v>
@@ -4638,7 +5069,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>62</v>
@@ -4671,16 +5102,16 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>227</v>
+        <v>335</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="15"/>
@@ -4702,7 +5133,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>64</v>
@@ -4731,7 +5162,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>66</v>
@@ -4760,7 +5191,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>68</v>
@@ -4789,7 +5220,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>216</v>
@@ -4818,7 +5249,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>70</v>
@@ -4847,7 +5278,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>71</v>
@@ -4876,7 +5307,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>73</v>
@@ -4905,7 +5336,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>75</v>
@@ -4936,10 +5367,10 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>219</v>
@@ -4967,7 +5398,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>46</v>
@@ -4998,7 +5429,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>71</v>
@@ -5027,7 +5458,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>77</v>
@@ -5056,7 +5487,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>78</v>
@@ -5085,10 +5516,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>219</v>
@@ -5114,7 +5545,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>81</v>
@@ -5143,7 +5574,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>83</v>
@@ -5152,7 +5583,7 @@
         <v>219</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="15"/>
@@ -5172,7 +5603,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>84</v>
@@ -5201,7 +5632,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>85</v>
@@ -5230,7 +5661,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>87</v>
@@ -5259,7 +5690,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>89</v>
@@ -5268,7 +5699,7 @@
         <v>219</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="15"/>
@@ -5288,7 +5719,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>61</v>
@@ -5317,7 +5748,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>61</v>
@@ -5346,7 +5777,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>83</v>
@@ -5355,7 +5786,7 @@
         <v>219</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="15"/>
@@ -5375,7 +5806,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>91</v>
@@ -5404,7 +5835,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>92</v>
@@ -5433,10 +5864,10 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>219</v>
@@ -5462,7 +5893,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>93</v>
@@ -5491,7 +5922,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>94</v>
@@ -5520,7 +5951,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>96</v>
@@ -5549,7 +5980,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>49</v>
@@ -5582,7 +6013,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>98</v>
@@ -5613,7 +6044,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>99</v>
@@ -5642,7 +6073,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>100</v>
@@ -5671,7 +6102,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>30</v>
@@ -5700,7 +6131,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>49</v>
@@ -5729,7 +6160,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>101</v>
@@ -5760,7 +6191,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>100</v>
@@ -5791,7 +6222,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>49</v>
@@ -5820,7 +6251,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>213</v>
@@ -5849,10 +6280,10 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>219</v>
@@ -5878,7 +6309,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="3" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>103</v>
@@ -5887,7 +6318,7 @@
         <v>219</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="12"/>
@@ -5907,10 +6338,10 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>219</v>
@@ -5936,7 +6367,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="3" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>105</v>
@@ -5965,7 +6396,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="3" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>107</v>
@@ -5994,7 +6425,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="3" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>109</v>
@@ -6023,7 +6454,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="3" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>111</v>
@@ -6032,7 +6463,7 @@
         <v>219</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="12"/>
@@ -6052,16 +6483,16 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="3" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="12"/>
@@ -6081,10 +6512,10 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="3" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>219</v>
@@ -6110,16 +6541,16 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="3" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>325</v>
+        <v>257</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="12"/>
@@ -6139,7 +6570,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="3" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>113</v>
@@ -6164,7 +6595,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="3" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>115</v>
@@ -6204,7 +6635,7 @@
         <v>219</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="12"/>
@@ -6224,7 +6655,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="3" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>81</v>
@@ -6253,7 +6684,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="3" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>116</v>
@@ -6282,7 +6713,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="3" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>117</v>
@@ -6311,7 +6742,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="3" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>118</v>
@@ -6340,7 +6771,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="3" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>211</v>
@@ -6369,7 +6800,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="3" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>121</v>
@@ -6398,7 +6829,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="3" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>123</v>
@@ -6407,7 +6838,7 @@
         <v>219</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="12"/>
@@ -6427,10 +6858,10 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="4" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>219</v>
@@ -6488,7 +6919,7 @@
         <v>126</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>219</v>
@@ -6514,7 +6945,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="4" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>21</v>
@@ -6546,13 +6977,13 @@
         <v>128</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="12"/>
@@ -6659,7 +7090,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="4" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>132</v>
@@ -6717,7 +7148,7 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="4" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>135</v>
@@ -6746,10 +7177,10 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="4" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>219</v>
@@ -6836,7 +7267,7 @@
         <v>141</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>219</v>
@@ -6871,7 +7302,7 @@
         <v>219</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="12"/>
@@ -6949,7 +7380,7 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="4" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>149</v>
@@ -6958,7 +7389,7 @@
         <v>219</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="12"/>
@@ -7070,13 +7501,13 @@
         <v>155</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="12"/>
@@ -7159,7 +7590,7 @@
         <v>210</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>219</v>
@@ -7185,7 +7616,7 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="4" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>160</v>
@@ -7217,13 +7648,13 @@
         <v>162</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="12"/>
@@ -7301,7 +7732,7 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="4" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>168</v>
@@ -7330,7 +7761,7 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="4" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="3" t="s">
@@ -7386,7 +7817,7 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="4" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>174</v>
@@ -7424,7 +7855,7 @@
         <v>219</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="12"/>
@@ -7447,13 +7878,13 @@
         <v>177</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="12"/>
@@ -7502,7 +7933,7 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="4" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>179</v>
@@ -7540,7 +7971,7 @@
         <v>219</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="12"/>
@@ -7627,7 +8058,7 @@
         <v>219</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="12"/>
@@ -7650,7 +8081,7 @@
         <v>188</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>219</v>
@@ -7705,10 +8136,10 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="4" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>219</v>
@@ -7796,7 +8227,7 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="9" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>195</v>
@@ -7805,7 +8236,7 @@
         <v>219</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="12"/>
@@ -7828,7 +8259,7 @@
         <v>196</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>219</v>
@@ -7854,7 +8285,7 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="4" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>197</v>
@@ -7925,7 +8356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>

--- a/data/0. old data/0. raw/2016/daiichi.xlsx
+++ b/data/0. old data/0. raw/2016/daiichi.xlsx
@@ -4028,7 +4028,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
